--- a/アプリの画像管理用エクセル.xlsx
+++ b/アプリの画像管理用エクセル.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05389f8d245cd0c4/デスクトップ/アプリ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{9275F2C2-3C03-42B9-9375-4EDB90EB6676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F9C1A3-9697-4E7C-B7D1-2F1EFCB119AD}"/>
+  <xr:revisionPtr revIDLastSave="404" documentId="8_{9275F2C2-3C03-42B9-9375-4EDB90EB6676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A27E6F9-7618-4B33-B0E6-703A327AC5DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5418E02B-731A-4C76-8C94-17B442EAA342}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5418E02B-731A-4C76-8C94-17B442EAA342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="175">
   <si>
     <t>リンク</t>
     <phoneticPr fontId="1"/>
@@ -390,10 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２軸のロードマップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>年度別折れ線グラフ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,6 +494,672 @@
     <t>表で施策を表現.jpg</t>
     <rPh sb="5" eb="7">
       <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２軸のロードマップ,マトリックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン別</t>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マトリクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折れ線グラフ</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滝グラフ</t>
+    <rPh sb="0" eb="1">
+      <t>タキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒グラフ×折れ線グラフ</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表＿箇条書き</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カジョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表＿グラフ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マトリクス＿方向</t>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>散布図</t>
+    <rPh sb="0" eb="3">
+      <t>サンプズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析結果</t>
+    <rPh sb="0" eb="4">
+      <t>ブンセキケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2軸分類と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２軸のロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージロ</t>
+  </si>
+  <si>
+    <t>グラフ細分</t>
+  </si>
+  <si>
+    <t>サプライチェーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サプライチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーム説</t>
+    <rPh sb="4" eb="5">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デマンドチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒアリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒアリング結果</t>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジックツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界地図を</t>
+    <rPh sb="0" eb="4">
+      <t>セカイチズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界地図表</t>
+    <rPh sb="0" eb="4">
+      <t>セカイチズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外状況</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業分野企業ごと</t>
+    <rPh sb="0" eb="4">
+      <t>ジギョウブンヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業分野</t>
+    <rPh sb="0" eb="4">
+      <t>ジギョウブンヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロジックツリー（原因の分解）</t>
+    <rPh sb="8" eb="10">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原因の分解</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各国の3軸</t>
+    <rPh sb="0" eb="2">
+      <t>カッコク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多軸棒グラ</t>
+    <rPh sb="0" eb="2">
+      <t>タジク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度別折れ</t>
+    <rPh sb="0" eb="2">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルジャーニー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術習得図</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シュウトクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折れ線グラ</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表＿施策カバー範囲</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施策カバー</t>
+    <rPh sb="0" eb="2">
+      <t>シサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒グラフ＿補足情報</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒・補足情</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒グラフ＿トレンド</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒グラフト</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒グラフ強</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒グラフ＿強調</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒グラフ比</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒グ上昇率</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒折れグラ</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検討ステップ</t>
+    <rPh sb="0" eb="2">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検討・ステ</t>
+    <rPh sb="0" eb="2">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検討・結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要・背景</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法令・規制</t>
+    <rPh sb="0" eb="2">
+      <t>ホウレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外から日</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滝グラフ、</t>
+    <rPh sb="0" eb="1">
+      <t>タキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滝グラフと</t>
+    <rPh sb="0" eb="1">
+      <t>タキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滝グラフ例</t>
+    <rPh sb="0" eb="1">
+      <t>タキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滝グラフ足</t>
+    <rPh sb="0" eb="1">
+      <t>タキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状の課題</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状分析課</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産性向上</t>
+    <rPh sb="0" eb="3">
+      <t>セイサンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箇条書きの</t>
+    <rPh sb="0" eb="3">
+      <t>カジョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景・事業</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景・概要</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表で施策を</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表の書き方</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数からま</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表＿矢印</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題と背景</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今後の方針</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施策検討</t>
+    <rPh sb="0" eb="2">
+      <t>シサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景・現状</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施策検討</t>
+    <rPh sb="0" eb="4">
+      <t>シサクケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表の記載方</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貼り付け用</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -505,7 +1168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,19 +1201,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -570,17 +1235,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,6 +1270,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,14 +1575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C550F8E0-6196-4EBB-9E64-A1A61FD700C4}">
   <dimension ref="B1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="24.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="117.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -915,7 +1590,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D1" t="s">
@@ -929,7 +1604,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="3" t="str">
         <f>LEFT(D2,5)</f>
         <v>課題と背景</v>
       </c>
@@ -944,7 +1619,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C47" si="0">LEFT(D3,5)</f>
         <v>課題と施策</v>
       </c>
@@ -956,7 +1631,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>棒グラフ比</v>
       </c>
@@ -965,7 +1640,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C5" t="str">
+      <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>棒グラフト</v>
       </c>
@@ -977,7 +1652,7 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>棒グラフ強</v>
       </c>
@@ -989,7 +1664,7 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>棒グラフで</v>
       </c>
@@ -1001,7 +1676,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>滝グラフ例</v>
       </c>
@@ -1013,7 +1688,7 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>折れ線グラ</v>
       </c>
@@ -1025,7 +1700,7 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>棒折れグラ</v>
       </c>
@@ -1037,7 +1712,7 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>スキーム説</v>
       </c>
@@ -1049,7 +1724,7 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>施策カバー</v>
       </c>
@@ -1061,19 +1736,19 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>表で施策を</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>背景・事業</v>
       </c>
@@ -1085,67 +1760,67 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>複数からま</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ヒアリング</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>背景・概要</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>技術習得図</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>世界地図表</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>滝グラフ足</v>
       </c>
@@ -1157,19 +1832,19 @@
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>世界地図を</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>滝グラフ、</v>
       </c>
@@ -1181,7 +1856,7 @@
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>グラフ細分</v>
       </c>
@@ -1193,19 +1868,19 @@
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>事業分野企</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>箇条書きの</v>
       </c>
@@ -1217,7 +1892,7 @@
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>多軸棒グラ</v>
       </c>
@@ -1229,7 +1904,7 @@
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>現状の課題</v>
       </c>
@@ -1241,7 +1916,7 @@
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>サプライチ</v>
       </c>
@@ -1253,7 +1928,7 @@
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>デマンドチ</v>
       </c>
@@ -1265,7 +1940,7 @@
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>棒・補足情</v>
       </c>
@@ -1277,7 +1952,7 @@
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>表の書き方</v>
       </c>
@@ -1289,192 +1964,192 @@
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>２軸のロー</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>年度別折れ</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="4" t="str">
         <f>LEFT(D34,5)</f>
         <v>イメージロ</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="3" t="str">
         <f>LEFT(D35,5)</f>
         <v>検討・ステ</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>検討・結果</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>概要・背景</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>表の記載方</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>現状分析課</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ロジックツ</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>各国の3軸</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>生産性向上</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2軸分類と</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>海外から日</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>滝グラフと</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>原因の分解</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>法令・規制</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1484,4 +2159,566 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5768E0-4C88-47B3-9269-774FB26066B8}">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>